--- a/output/swine_datasource.xlsx
+++ b/output/swine_datasource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet sheetId="3" name="SWINE" state="visible" r:id="rId4"/>
@@ -50615,7 +50615,7 @@
   <dimension ref="A1:J409"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="110" zoomScaleNormal="110" view="normal">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.6796875" customHeight="1"/>
